--- a/REGULAR/RE-ENCODE/DE VILLA, OFELIA.xlsx
+++ b/REGULAR/RE-ENCODE/DE VILLA, OFELIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,6 +339,18 @@
   </si>
   <si>
     <t>PARENTAL 3/10,13/2023</t>
+  </si>
+  <si>
+    <t>COMELEC</t>
+  </si>
+  <si>
+    <t>SL(9-0-0)</t>
+  </si>
+  <si>
+    <t>4/24-28, 5/2-5/2023</t>
+  </si>
+  <si>
+    <t>5/18,19/2023</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1378,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A86" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1447,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>102</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1526,7 +1540,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.655000000000001</v>
+        <v>84.905000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1536,7 +1550,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>80.25</v>
+        <v>72.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3526,25 +3540,39 @@
       <c r="A102" s="40">
         <v>45017</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39"/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H102" s="39">
+        <v>9</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
+      <c r="D103" s="39">
+        <v>2</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
@@ -3554,7 +3582,9 @@
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
